--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>St14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H2">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I2">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J2">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.193668593795061</v>
+        <v>0.7597586666666668</v>
       </c>
       <c r="N2">
-        <v>0.193668593795061</v>
+        <v>2.279276</v>
       </c>
       <c r="O2">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105157</v>
       </c>
       <c r="P2">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105158</v>
       </c>
       <c r="Q2">
-        <v>2.119904680706556</v>
+        <v>6.280029901624001</v>
       </c>
       <c r="R2">
-        <v>2.119904680706556</v>
+        <v>56.52026911461601</v>
       </c>
       <c r="S2">
-        <v>0.04048690033981011</v>
+        <v>0.0661582337706621</v>
       </c>
       <c r="T2">
-        <v>0.04048690033981011</v>
+        <v>0.06615823377066211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H3">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I3">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J3">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.555435302122408</v>
+        <v>0.6247346666666667</v>
       </c>
       <c r="N3">
-        <v>0.555435302122408</v>
+        <v>1.874204</v>
       </c>
       <c r="O3">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="P3">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="Q3">
-        <v>6.079818486444656</v>
+        <v>5.163945551896</v>
       </c>
       <c r="R3">
-        <v>6.079818486444656</v>
+        <v>46.475509967064</v>
       </c>
       <c r="S3">
-        <v>0.1161151288475754</v>
+        <v>0.05440061948000592</v>
       </c>
       <c r="T3">
-        <v>0.1161151288475754</v>
+        <v>0.05440061948000592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H4">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I4">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J4">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.300414366517503</v>
+        <v>0.3417453333333333</v>
       </c>
       <c r="N4">
-        <v>0.300414366517503</v>
+        <v>1.025236</v>
       </c>
       <c r="O4">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="P4">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="Q4">
-        <v>3.288348457808601</v>
+        <v>2.824806094664</v>
       </c>
       <c r="R4">
-        <v>3.288348457808601</v>
+        <v>25.423254851976</v>
       </c>
       <c r="S4">
-        <v>0.06280236913741412</v>
+        <v>0.02975848600963574</v>
       </c>
       <c r="T4">
-        <v>0.06280236913741412</v>
+        <v>0.02975848600963575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H5">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I5">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J5">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.665050626713615</v>
+        <v>0.6651113333333333</v>
       </c>
       <c r="N5">
-        <v>0.665050626713615</v>
+        <v>1.995334</v>
       </c>
       <c r="O5">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="P5">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="Q5">
-        <v>7.279672500585766</v>
+        <v>5.497691891515999</v>
       </c>
       <c r="R5">
-        <v>7.279672500585766</v>
+        <v>49.47922702364399</v>
       </c>
       <c r="S5">
-        <v>0.1390304845873727</v>
+        <v>0.05791653719099848</v>
       </c>
       <c r="T5">
-        <v>0.1390304845873727</v>
+        <v>0.05791653719099848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H6">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I6">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J6">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.193668593795061</v>
+        <v>0.7597586666666668</v>
       </c>
       <c r="N6">
-        <v>0.193668593795061</v>
+        <v>2.279276</v>
       </c>
       <c r="O6">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105157</v>
       </c>
       <c r="P6">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105158</v>
       </c>
       <c r="Q6">
-        <v>3.672949066293441</v>
+        <v>8.574600856595557</v>
       </c>
       <c r="R6">
-        <v>3.672949066293441</v>
+        <v>77.17140770936001</v>
       </c>
       <c r="S6">
-        <v>0.07014764586050062</v>
+        <v>0.0903308514206391</v>
       </c>
       <c r="T6">
-        <v>0.07014764586050062</v>
+        <v>0.09033085142063911</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H7">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I7">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J7">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.555435302122408</v>
+        <v>0.6247346666666667</v>
       </c>
       <c r="N7">
-        <v>0.555435302122408</v>
+        <v>1.874204</v>
       </c>
       <c r="O7">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="P7">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="Q7">
-        <v>10.53389986646839</v>
+        <v>7.050726293715556</v>
       </c>
       <c r="R7">
-        <v>10.53389986646839</v>
+        <v>63.45653664344</v>
       </c>
       <c r="S7">
-        <v>0.201181193647395</v>
+        <v>0.07427728939188034</v>
       </c>
       <c r="T7">
-        <v>0.201181193647395</v>
+        <v>0.07427728939188034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H8">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I8">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J8">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.300414366517503</v>
+        <v>0.3417453333333333</v>
       </c>
       <c r="N8">
-        <v>0.300414366517503</v>
+        <v>1.025236</v>
       </c>
       <c r="O8">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="P8">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="Q8">
-        <v>5.697395976186086</v>
+        <v>3.856921883884445</v>
       </c>
       <c r="R8">
-        <v>5.697395976186086</v>
+        <v>34.71229695496</v>
       </c>
       <c r="S8">
-        <v>0.1088114504315354</v>
+        <v>0.04063151666892922</v>
       </c>
       <c r="T8">
-        <v>0.1088114504315354</v>
+        <v>0.04063151666892923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H9">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I9">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J9">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.665050626713615</v>
+        <v>0.6651113333333333</v>
       </c>
       <c r="N9">
-        <v>0.665050626713615</v>
+        <v>1.995334</v>
       </c>
       <c r="O9">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="P9">
-        <v>0.3878821264766228</v>
+        <v>0.2781321568709446</v>
       </c>
       <c r="Q9">
-        <v>12.61276818589641</v>
+        <v>7.50641546947111</v>
       </c>
       <c r="R9">
-        <v>12.61276818589641</v>
+        <v>67.55773922524</v>
       </c>
       <c r="S9">
-        <v>0.2408843629616956</v>
+        <v>0.07907783835241956</v>
       </c>
       <c r="T9">
-        <v>0.2408843629616956</v>
+        <v>0.07907783835241956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.627273758836396</v>
+        <v>19.51551966666667</v>
       </c>
       <c r="H10">
-        <v>0.627273758836396</v>
+        <v>58.546559</v>
       </c>
       <c r="I10">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="J10">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.193668593795061</v>
+        <v>0.7597586666666668</v>
       </c>
       <c r="N10">
-        <v>0.193668593795061</v>
+        <v>2.279276</v>
       </c>
       <c r="O10">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105157</v>
       </c>
       <c r="P10">
-        <v>0.1129546879222987</v>
+        <v>0.3177111952105158</v>
       </c>
       <c r="Q10">
-        <v>0.121483226798387</v>
+        <v>14.82708520125378</v>
       </c>
       <c r="R10">
-        <v>0.121483226798387</v>
+        <v>133.443766811284</v>
       </c>
       <c r="S10">
-        <v>0.00232014172198796</v>
+        <v>0.1561989010002015</v>
       </c>
       <c r="T10">
-        <v>0.00232014172198796</v>
+        <v>0.1561989010002015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.627273758836396</v>
+        <v>19.51551966666667</v>
       </c>
       <c r="H11">
-        <v>0.627273758836396</v>
+        <v>58.546559</v>
       </c>
       <c r="I11">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="J11">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.555435302122408</v>
+        <v>0.6247346666666667</v>
       </c>
       <c r="N11">
-        <v>0.555435302122408</v>
+        <v>1.874204</v>
       </c>
       <c r="O11">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="P11">
-        <v>0.3239504143798058</v>
+        <v>0.2612476913319534</v>
       </c>
       <c r="Q11">
-        <v>0.3484099897527521</v>
+        <v>12.19202167378178</v>
       </c>
       <c r="R11">
-        <v>0.3484099897527521</v>
+        <v>109.728195064036</v>
       </c>
       <c r="S11">
-        <v>0.006654091884835336</v>
+        <v>0.1284392960967349</v>
       </c>
       <c r="T11">
-        <v>0.006654091884835336</v>
+        <v>0.1284392960967349</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.627273758836396</v>
+        <v>19.51551966666667</v>
       </c>
       <c r="H12">
-        <v>0.627273758836396</v>
+        <v>58.546559</v>
       </c>
       <c r="I12">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="J12">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.300414366517503</v>
+        <v>0.3417453333333333</v>
       </c>
       <c r="N12">
-        <v>0.300414366517503</v>
+        <v>1.025236</v>
       </c>
       <c r="O12">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="P12">
-        <v>0.1752127712212727</v>
+        <v>0.1429089565865864</v>
       </c>
       <c r="Q12">
-        <v>0.1884420488938889</v>
+        <v>6.669337773658222</v>
       </c>
       <c r="R12">
-        <v>0.1884420488938889</v>
+        <v>60.02403996292401</v>
       </c>
       <c r="S12">
-        <v>0.00359895165232318</v>
+        <v>0.0702594755816507</v>
       </c>
       <c r="T12">
-        <v>0.00359895165232318</v>
+        <v>0.07025947558165072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19.51551966666667</v>
+      </c>
+      <c r="H13">
+        <v>58.546559</v>
+      </c>
+      <c r="I13">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="J13">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6651113333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.995334</v>
+      </c>
+      <c r="O13">
+        <v>0.2781321568709446</v>
+      </c>
+      <c r="P13">
+        <v>0.2781321568709446</v>
+      </c>
+      <c r="Q13">
+        <v>12.97999330618955</v>
+      </c>
+      <c r="R13">
+        <v>116.819939755706</v>
+      </c>
+      <c r="S13">
+        <v>0.1367403411997213</v>
+      </c>
+      <c r="T13">
+        <v>0.1367403411997213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.882802</v>
+      </c>
+      <c r="I14">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J14">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7597586666666668</v>
+      </c>
+      <c r="N14">
+        <v>2.279276</v>
+      </c>
+      <c r="O14">
+        <v>0.3177111952105157</v>
+      </c>
+      <c r="P14">
+        <v>0.3177111952105158</v>
+      </c>
+      <c r="Q14">
+        <v>0.4768250457057778</v>
+      </c>
+      <c r="R14">
+        <v>4.291425411352</v>
+      </c>
+      <c r="S14">
+        <v>0.005023209019013077</v>
+      </c>
+      <c r="T14">
+        <v>0.005023209019013077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.882802</v>
+      </c>
+      <c r="I15">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J15">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6247346666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.874204</v>
+      </c>
+      <c r="O15">
+        <v>0.2612476913319534</v>
+      </c>
+      <c r="P15">
+        <v>0.2612476913319534</v>
+      </c>
+      <c r="Q15">
+        <v>0.3920838932897777</v>
+      </c>
+      <c r="R15">
+        <v>3.528755039608</v>
+      </c>
+      <c r="S15">
+        <v>0.004130486363332209</v>
+      </c>
+      <c r="T15">
+        <v>0.004130486363332209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.627273758836396</v>
-      </c>
-      <c r="H13">
-        <v>0.627273758836396</v>
-      </c>
-      <c r="I13">
-        <v>0.02054046418670096</v>
-      </c>
-      <c r="J13">
-        <v>0.02054046418670096</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.665050626713615</v>
-      </c>
-      <c r="N13">
-        <v>0.665050626713615</v>
-      </c>
-      <c r="O13">
-        <v>0.3878821264766228</v>
-      </c>
-      <c r="P13">
-        <v>0.3878821264766228</v>
-      </c>
-      <c r="Q13">
-        <v>0.4171688064351502</v>
-      </c>
-      <c r="R13">
-        <v>0.4171688064351502</v>
-      </c>
-      <c r="S13">
-        <v>0.007967278927554484</v>
-      </c>
-      <c r="T13">
-        <v>0.007967278927554484</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.882802</v>
+      </c>
+      <c r="I16">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J16">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3417453333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.025236</v>
+      </c>
+      <c r="O16">
+        <v>0.1429089565865864</v>
+      </c>
+      <c r="P16">
+        <v>0.1429089565865864</v>
+      </c>
+      <c r="Q16">
+        <v>0.2144795990302222</v>
+      </c>
+      <c r="R16">
+        <v>1.930316391272</v>
+      </c>
+      <c r="S16">
+        <v>0.002259478326370694</v>
+      </c>
+      <c r="T16">
+        <v>0.002259478326370694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.882802</v>
+      </c>
+      <c r="I17">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J17">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6651113333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.995334</v>
+      </c>
+      <c r="O17">
+        <v>0.2781321568709446</v>
+      </c>
+      <c r="P17">
+        <v>0.2781321568709446</v>
+      </c>
+      <c r="Q17">
+        <v>0.4174243162075555</v>
+      </c>
+      <c r="R17">
+        <v>3.756818845867999</v>
+      </c>
+      <c r="S17">
+        <v>0.004397440127805249</v>
+      </c>
+      <c r="T17">
+        <v>0.004397440127805249</v>
       </c>
     </row>
   </sheetData>
